--- a/Data/aearep-1636/candidatepackages.xlsx
+++ b/Data/aearep-1636/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,9 +25,6 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>unique</t>
   </si>
   <si>
@@ -46,102 +43,93 @@
     <t>listtab</t>
   </si>
   <si>
+    <t>network</t>
+  </si>
+  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>mean2</t>
   </si>
   <si>
     <t>title</t>
   </si>
   <si>
+    <t>norm</t>
+  </si>
+  <si>
     <t>cluster</t>
   </si>
   <si>
-    <t>norm</t>
-  </si>
-  <si>
     <t>split</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>rev</t>
   </si>
   <si>
-    <t>white</t>
+    <t>median</t>
+  </si>
+  <si>
+    <t>index</t>
   </si>
   <si>
     <t>weaver</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>median</t>
+    <t>reformat</t>
+  </si>
+  <si>
+    <t>bys</t>
+  </si>
+  <si>
+    <t>swapval</t>
+  </si>
+  <si>
+    <t>pca2</t>
+  </si>
+  <si>
+    <t>combine</t>
+  </si>
+  <si>
+    <t>effects</t>
   </si>
   <si>
     <t>dyads</t>
   </si>
   <si>
-    <t>reformat</t>
-  </si>
-  <si>
-    <t>pca2</t>
-  </si>
-  <si>
-    <t>combine</t>
-  </si>
-  <si>
-    <t>bys</t>
-  </si>
-  <si>
-    <t>swapval</t>
-  </si>
-  <si>
-    <t>effects</t>
+    <t>gets</t>
   </si>
   <si>
     <t>roman</t>
   </si>
   <si>
-    <t>next</t>
+    <t>head</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>gets</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
     <t>mail</t>
   </si>
   <si>
+    <t>meaning</t>
+  </si>
+  <si>
+    <t>dash</t>
+  </si>
+  <si>
+    <t>backup</t>
+  </si>
+  <si>
+    <t>sto</t>
+  </si>
+  <si>
     <t>switch</t>
   </si>
   <si>
-    <t>dash</t>
-  </si>
-  <si>
-    <t>backup</t>
-  </si>
-  <si>
-    <t>meaning</t>
-  </si>
-  <si>
-    <t>sto</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -154,9 +142,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1636</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1636/128201/TypesOfContactReplicationAER/code</t>
   </si>
   <si>
@@ -166,24 +151,12 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-1636/128201/TypesOfContactReplicationAER/code/prep</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1636/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
     <t>TypesOfContact_Master.do</t>
   </si>
   <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
     <t>TypesOfContact_FigsTabs.do</t>
   </si>
   <si>
@@ -218,9 +191,6 @@
   </si>
   <si>
     <t>5.Social_OutputNetwork_CCC.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -264,7 +234,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D38"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -272,13 +242,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -286,7 +256,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -310,7 +280,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -322,7 +292,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -334,7 +304,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -346,7 +316,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -358,7 +328,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -370,7 +340,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -382,7 +352,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -394,7 +364,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -406,7 +376,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -418,10 +388,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>316</v>
+        <v>499</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D13"/>
     </row>
@@ -430,10 +400,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>565</v>
+        <v>539</v>
       </c>
       <c r="C14">
-        <v>0.18733422458171844</v>
+        <v>0.17818181216716766</v>
       </c>
       <c r="D14"/>
     </row>
@@ -442,10 +412,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C15">
-        <v>0.18766577541828156</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D15"/>
     </row>
@@ -454,10 +424,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>594</v>
+        <v>632</v>
       </c>
       <c r="C16">
-        <v>0.19694960117340088</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D16"/>
     </row>
@@ -466,10 +436,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>606</v>
+        <v>712</v>
       </c>
       <c r="C17">
-        <v>0.20092837512493134</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D17"/>
     </row>
@@ -478,10 +448,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>698</v>
+        <v>746</v>
       </c>
       <c r="C18">
-        <v>0.23143236339092255</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D18"/>
     </row>
@@ -490,10 +460,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>745</v>
+        <v>955</v>
       </c>
       <c r="C19">
-        <v>0.24701590836048126</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D19"/>
     </row>
@@ -502,10 +472,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>972</v>
+        <v>998</v>
       </c>
       <c r="C20">
-        <v>0.32228118181228638</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D20"/>
     </row>
@@ -514,10 +484,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>985</v>
+        <v>1050</v>
       </c>
       <c r="C21">
-        <v>0.32659152150154114</v>
+        <v>0.34710744023323059</v>
       </c>
       <c r="D21"/>
     </row>
@@ -526,10 +496,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1124</v>
+        <v>1303</v>
       </c>
       <c r="C22">
-        <v>0.37267905473709106</v>
+        <v>0.43074381351470947</v>
       </c>
       <c r="D22"/>
     </row>
@@ -538,10 +508,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1133</v>
+        <v>1306</v>
       </c>
       <c r="C23">
-        <v>0.37566313147544861</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D23"/>
     </row>
@@ -550,10 +520,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1286</v>
+        <v>1370</v>
       </c>
       <c r="C24">
-        <v>0.42639258503913879</v>
+        <v>0.45289257168769836</v>
       </c>
       <c r="D24"/>
     </row>
@@ -562,10 +532,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1289</v>
+        <v>1400</v>
       </c>
       <c r="C25">
-        <v>0.42738726735115051</v>
+        <v>0.46280992031097412</v>
       </c>
       <c r="D25"/>
     </row>
@@ -574,10 +544,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1304</v>
+        <v>1414</v>
       </c>
       <c r="C26">
-        <v>0.43236073851585388</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D26"/>
     </row>
@@ -586,10 +556,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1423</v>
+        <v>1497</v>
       </c>
       <c r="C27">
-        <v>0.47181698679924011</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D27"/>
     </row>
@@ -598,10 +568,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1472</v>
+        <v>1524</v>
       </c>
       <c r="C28">
-        <v>0.48806366324424744</v>
+        <v>0.50380164384841919</v>
       </c>
       <c r="D28"/>
     </row>
@@ -610,10 +580,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1571</v>
+        <v>1865</v>
       </c>
       <c r="C29">
-        <v>0.5208885669708252</v>
+        <v>0.61652892827987671</v>
       </c>
       <c r="D29"/>
     </row>
@@ -622,10 +592,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1660</v>
+        <v>1937</v>
       </c>
       <c r="C30">
-        <v>0.55039787292480469</v>
+        <v>0.64033055305480957</v>
       </c>
       <c r="D30"/>
     </row>
@@ -634,10 +604,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1745</v>
+        <v>1971</v>
       </c>
       <c r="C31">
-        <v>0.57858091592788696</v>
+        <v>0.65157026052474976</v>
       </c>
       <c r="D31"/>
     </row>
@@ -646,10 +616,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1798</v>
+        <v>1993</v>
       </c>
       <c r="C32">
-        <v>0.5961538553237915</v>
+        <v>0.65884298086166382</v>
       </c>
       <c r="D32"/>
     </row>
@@ -658,10 +628,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1817</v>
+        <v>2074</v>
       </c>
       <c r="C33">
-        <v>0.60245358943939209</v>
+        <v>0.68561983108520508</v>
       </c>
       <c r="D33"/>
     </row>
@@ -670,10 +640,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1859</v>
+        <v>2359</v>
       </c>
       <c r="C34">
-        <v>0.61637932062149048</v>
+        <v>0.77983468770980835</v>
       </c>
       <c r="D34"/>
     </row>
@@ -682,10 +652,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1965</v>
+        <v>2436</v>
       </c>
       <c r="C35">
-        <v>0.65152519941329956</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D35"/>
     </row>
@@ -694,10 +664,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2133</v>
+        <v>2685</v>
       </c>
       <c r="C36">
-        <v>0.70722812414169312</v>
+        <v>0.8876032829284668</v>
       </c>
       <c r="D36"/>
     </row>
@@ -706,10 +676,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2239</v>
+        <v>2785</v>
       </c>
       <c r="C37">
-        <v>0.7423740029335022</v>
+        <v>0.92066115140914917</v>
       </c>
       <c r="D37"/>
     </row>
@@ -718,60 +688,12 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2367</v>
+        <v>2806</v>
       </c>
       <c r="C38">
-        <v>0.78481429815292358</v>
+        <v>0.92760330438613892</v>
       </c>
       <c r="D38"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>2424</v>
-      </c>
-      <c r="C39">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D39"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>2490</v>
-      </c>
-      <c r="C40">
-        <v>0.82559680938720703</v>
-      </c>
-      <c r="D40"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>2529</v>
-      </c>
-      <c r="C41">
-        <v>0.8385278582572937</v>
-      </c>
-      <c r="D41"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>2714</v>
-      </c>
-      <c r="C42">
-        <v>0.89986735582351685</v>
-      </c>
-      <c r="D42"/>
     </row>
   </sheetData>
 </worksheet>
@@ -779,151 +701,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
